--- a/src/main/resources/data/updateFilter.xlsx
+++ b/src/main/resources/data/updateFilter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13120"/>
+    <workbookView windowWidth="28000" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>title</t>
   </si>
@@ -124,10 +124,10 @@
     <t>图分析视图-updateFilter-跨账号不可操作</t>
   </si>
   <si>
-    <t>{"id":1675,"projectId":1334,"graphId":2497,"graphFilterPipelineId":1000,"type":1,"subType":1,"data":{"attr":""}}</t>
-  </si>
-  <si>
-    <t>无权访问</t>
+    <t>{"id":1675,"projectId":2368,"graphId":3628,"graphFilterPipelineId":1000,"type":1,"subType":1,"data":{"attr":""}}</t>
+  </si>
+  <si>
+    <t>无权</t>
   </si>
   <si>
     <t>图分析视图-updateFilter-同账号非当前项目标签不能操作</t>
@@ -136,25 +136,22 @@
     <t>{"id":1675,"projectId":1426,"graphId":2837,"graphFilterPipelineId":1021,"type":1,"subType":1,"data":{"attr":""}}</t>
   </si>
   <si>
+    <t>不属于</t>
+  </si>
+  <si>
+    <t>图分析视图-updateFilter-项目下不存在的标签不能操作</t>
+  </si>
+  <si>
+    <t>{"id":1675,"projectId":1426,"graphId":2772,"graphFilterPipelineId":1021,"type":1,"subType":1,"data":{"attr":""}}</t>
+  </si>
+  <si>
     <t>无权操作</t>
   </si>
   <si>
-    <t>图分析视图-updateFilter-项目下不存在的标签不能操作</t>
-  </si>
-  <si>
-    <t>{"id":1675,"projectId":1426,"graphId":2772,"graphFilterPipelineId":1021,"type":1,"subType":1,"data":{"attr":""}}</t>
-  </si>
-  <si>
     <t>图分析视图-updateFilter-不存在的过滤器流程id</t>
   </si>
   <si>
     <t>{"id":0,"projectId":1426,"graphId":2876,"graphFilterPipelineId":1021,"type":1,"subType":1,"data":{"attr":""}}</t>
-  </si>
-  <si>
-    <t>图分析视图-updateFilter-不在过滤器流程里的过滤器不能操作</t>
-  </si>
-  <si>
-    <t>{"id":1679,"projectId":1426,"graphId":2876,"graphFilterPipelineId":1021,"type":1,"subType":1,"data":{"attr":""}}</t>
   </si>
 </sst>
 </file>
@@ -163,9 +160,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -196,13 +193,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -210,8 +200,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,100 +222,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,6 +245,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -345,6 +289,59 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -373,103 +370,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,73 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,23 +636,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,11 +651,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,17 +681,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,11 +724,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,148 +735,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2091,14 +2088,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
@@ -2163,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8"/>
     </row>
@@ -2181,7 +2178,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -2199,7 +2196,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -2217,7 +2214,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -2235,7 +2232,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -2253,7 +2250,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -2265,13 +2262,13 @@
         <v>24</v>
       </c>
       <c r="C9" s="8">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -2289,7 +2286,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -2307,7 +2304,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -2325,7 +2322,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -2343,7 +2340,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -2361,7 +2358,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -2373,13 +2370,13 @@
         <v>36</v>
       </c>
       <c r="C15" s="8">
-        <v>401</v>
+        <v>90009</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -2391,13 +2388,13 @@
         <v>39</v>
       </c>
       <c r="C16" s="8">
-        <v>90009</v>
+        <v>90017</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -2412,47 +2409,37 @@
         <v>90009</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" ht="20.05" customHeight="1" spans="1:6">
       <c r="A18" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="8">
         <v>90009</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
-      <c r="A19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="8">
-        <v>90009</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
+    <row r="19" ht="20.05" customHeight="1" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" ht="20.05" customHeight="1" spans="1:6">
@@ -2487,14 +2474,6 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" ht="20.05" customHeight="1" spans="1:6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>
